--- a/users_app/test_data/import_template_user_with_incorrect_emailEXAMPLE.xlsx
+++ b/users_app/test_data/import_template_user_with_incorrect_emailEXAMPLE.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve">email</t>
   </si>
@@ -37,7 +37,34 @@
     <t xml:space="preserve">bio</t>
   </si>
   <si>
-    <t xml:space="preserve">incorrect.email</t>
+    <t xml:space="preserve">incorrect.email1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">username1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">first_name_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last_name_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bio_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">incorrect.email2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">username2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">first_name_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last_name_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bio_2</t>
   </si>
 </sst>
 </file>
@@ -439,21 +466,34 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3"/>
